--- a/data/trans_camb/P16B02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,61</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,74; 18,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,26; 24,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 32,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 30,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,63; 22,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; 21,89</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,92; 27,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,57; 40,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 54,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,36; 52,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,27; 34,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,83; 34,87</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 17,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,17; 5,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,24; 6,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,43; 1,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 8,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,03; -0,19</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,77%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; 26,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,38; 8,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 7,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,24; 1,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 11,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,64; -0,13</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 5,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,84; -6,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 4,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; 2,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 2,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,87; -3,09</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,57%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,83; 6,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,42; -7,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; 5,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 3,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,57; 3,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,46; -3,65</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,57</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,57; 13,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,76; 10,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,78; -4,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,39; -8,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; -1,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,12; -5,12</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,49%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,46; 22,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,55; 17,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,66; -5,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,9; -10,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,86; -1,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,77; -6,73</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,96</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,56</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,73; 4,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,49; -4,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,76; 1,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; -2,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,35; 0,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,73; -6,19</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,68%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,98; 6,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,38; -6,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,24; 1,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,93; -3,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,67; 0,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,63; -8,14</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,32</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; 3,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; -5,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; -0,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; -4,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,42; -0,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; -6,29</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,23%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,83%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,43%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 5,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,76; -6,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,19; -1,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,37; -5,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; -0,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,0; -7,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,29</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-7,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,14</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>-5,02</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 18,69</t>
+          <t>-8,55; 13,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 24,91</t>
+          <t>-18,74; 5,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 32,38</t>
+          <t>-7,15; 8,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 30,56</t>
+          <t>-12,1; 3,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 22,45</t>
+          <t>-4,82; 8,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 21,89</t>
+          <t>-11,11; 2,72</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>-6,17%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 27,94</t>
+          <t>-10,08; 20,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,57; 40,49</t>
+          <t>-22,76; 8,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 54,33</t>
+          <t>-8,07; 10,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 52,6</t>
+          <t>-13,67; 4,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 34,29</t>
+          <t>-5,61; 11,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 34,87</t>
+          <t>-13,11; 3,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>-14,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-8,2</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 17,62</t>
+          <t>-10,81; 5,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 5,77</t>
+          <t>-24,84; -6,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 6,01</t>
+          <t>-7,74; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 1,49</t>
+          <t>-10,26; 2,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 8,66</t>
+          <t>-6,75; 2,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -0,19</t>
+          <t>-13,87; -3,09</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,77%</t>
+          <t>-9,57%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 26,02</t>
+          <t>-11,83; 6,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 8,56</t>
+          <t>-27,42; -7,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 7,29</t>
+          <t>-8,69; 5,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 1,53</t>
+          <t>-11,76; 3,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 11,05</t>
+          <t>-7,57; 3,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -0,13</t>
+          <t>-15,46; -3,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-14,91</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-16,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-12,57</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 5,24</t>
+          <t>-14,57; 13,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,84; -6,13</t>
+          <t>-18,76; 10,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,78</t>
+          <t>-19,78; -4,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 2,64</t>
+          <t>-24,39; -8,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,92</t>
+          <t>-14,88; -1,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -3,09</t>
+          <t>-20,12; -5,12</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-13,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-18,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,57%</t>
+          <t>-15,49%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 6,48</t>
+          <t>-18,46; 22,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -7,5</t>
+          <t>-25,55; 17,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 5,86</t>
+          <t>-21,66; -5,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 3,04</t>
+          <t>-26,9; -10,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,51</t>
+          <t>-17,86; -1,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -3,65</t>
+          <t>-23,77; -6,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-14,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,94</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-16,3</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,17</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-11,56</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 13,62</t>
+          <t>-13,73; 4,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 10,19</t>
+          <t>-23,49; -4,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -4,96</t>
+          <t>-12,76; 1,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,39; -8,64</t>
+          <t>-16,43; -2,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -1,12</t>
+          <t>-10,35; 0,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,12; -5,12</t>
+          <t>-17,73; -6,19</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>-19,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,6%</t>
+          <t>-6,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,55%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,49%</t>
+          <t>-14,68%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 22,95</t>
+          <t>-16,98; 6,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 17,21</t>
+          <t>-29,38; -6,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -5,74</t>
+          <t>-15,24; 1,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,9; -10,1</t>
+          <t>-19,93; -3,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,86; -1,41</t>
+          <t>-12,67; 0,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -6,73</t>
+          <t>-21,63; -8,14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-14,96</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-9,76</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>-9,32</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 4,73</t>
+          <t>-6,42; 3,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -4,83</t>
+          <t>-16,68; -5,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 1,24</t>
+          <t>-7,94; -0,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-16,43; -2,72</t>
+          <t>-12,4; -4,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 0,29</t>
+          <t>-6,42; -0,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,73; -6,19</t>
+          <t>-12,43; -6,29</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-19,41%</t>
+          <t>-14,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,59%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>-9,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,15%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-14,68%</t>
+          <t>-11,43%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 6,54</t>
+          <t>-8,02; 5,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,38; -6,58</t>
+          <t>-20,76; -6,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 1,59</t>
+          <t>-9,19; -1,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -3,62</t>
+          <t>-14,37; -5,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 0,39</t>
+          <t>-7,75; -0,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,63; -8,14</t>
+          <t>-15,0; -7,8</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-11,04</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-4,45</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-8,24</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-9,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 3,94</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-16,68; -5,05</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; -0,93</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-12,4; -4,14</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; -0,19</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-12,43; -6,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-1,71%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-14,23%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-5,31%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-9,83%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-3,99%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-11,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; 5,22</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; -6,77</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-9,19; -1,12</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-14,37; -5,04</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-7,75; -0,24</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-15,0; -7,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 13,94</t>
+          <t>-9,9; 15,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 5,49</t>
+          <t>-18,19; 4,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 8,19</t>
+          <t>-6,79; 8,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 3,9</t>
+          <t>-11,74; 3,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 8,66</t>
+          <t>-4,84; 9,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 2,72</t>
+          <t>-11,41; 2,26</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 20,57</t>
+          <t>-11,53; 22,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 8,0</t>
+          <t>-21,96; 6,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 10,34</t>
+          <t>-7,62; 10,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 4,95</t>
+          <t>-13,68; 4,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 11,39</t>
+          <t>-5,57; 12,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 3,73</t>
+          <t>-13,39; 3,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 5,24</t>
+          <t>-11,27; 5,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,84; -6,13</t>
+          <t>-23,64; -5,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,78</t>
+          <t>-7,97; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 2,64</t>
+          <t>-10,13; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,92</t>
+          <t>-6,88; 3,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -3,09</t>
+          <t>-13,42; -2,21</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 6,48</t>
+          <t>-12,51; 6,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -7,5</t>
+          <t>-26,41; -6,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 5,86</t>
+          <t>-8,98; 5,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 3,04</t>
+          <t>-11,42; 3,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,51</t>
+          <t>-7,88; 3,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -3,65</t>
+          <t>-15,28; -2,68</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 13,62</t>
+          <t>-13,35; 13,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 10,19</t>
+          <t>-18,7; 10,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -4,96</t>
+          <t>-19,39; -4,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,39; -8,64</t>
+          <t>-24,18; -8,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -1,12</t>
+          <t>-14,83; -1,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,12; -5,12</t>
+          <t>-19,81; -5,18</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 22,95</t>
+          <t>-17,92; 23,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 17,21</t>
+          <t>-24,93; 18,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -5,74</t>
+          <t>-21,32; -5,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,9; -10,1</t>
+          <t>-27,14; -10,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,86; -1,41</t>
+          <t>-17,48; -1,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -6,73</t>
+          <t>-23,61; -6,55</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 4,73</t>
+          <t>-13,93; 6,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -4,83</t>
+          <t>-24,99; -5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 1,24</t>
+          <t>-12,32; 1,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,43; -2,72</t>
+          <t>-16,97; -2,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 0,29</t>
+          <t>-10,45; 0,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,73; -6,19</t>
+          <t>-17,07; -5,57</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 6,54</t>
+          <t>-17,15; 8,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,38; -6,58</t>
+          <t>-31,46; -8,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 1,59</t>
+          <t>-14,98; 2,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -3,62</t>
+          <t>-20,58; -4,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 0,39</t>
+          <t>-12,73; 0,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,63; -8,14</t>
+          <t>-21,14; -7,53</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 3,94</t>
+          <t>-6,75; 4,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -5,05</t>
+          <t>-16,37; -5,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,94; -0,93</t>
+          <t>-7,96; -1,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -4,14</t>
+          <t>-12,15; -4,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,19</t>
+          <t>-6,02; -0,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -6,29</t>
+          <t>-12,66; -6,49</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 5,22</t>
+          <t>-8,51; 5,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,76; -6,77</t>
+          <t>-20,31; -7,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -1,12</t>
+          <t>-9,38; -1,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -5,04</t>
+          <t>-14,25; -5,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -0,24</t>
+          <t>-7,27; -0,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,0; -7,8</t>
+          <t>-15,16; -8,05</t>
         </is>
       </c>
     </row>
